--- a/public/lead_template.xlsx
+++ b/public/lead_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sem-6\Lead_Management_AWT_AJ\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aryan Data\Usefull Data\Semester - 6\AWT AJ Project\Trackly\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BFD219-5AD7-4068-ADBB-B886DD3F7756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FA0211-5E16-4837-9CC2-1F2419E7A598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{D634342C-48D8-47BD-BA94-F33F2608EB01}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D634342C-48D8-47BD-BA94-F33F2608EB01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,21 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>Lead Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact </t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>contact_number</t>
   </si>
 </sst>
 </file>
@@ -400,34 +403,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8556B7-2EB2-445A-A59F-160A0AF577C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
